--- a/植物 工具 材料_Steven.xlsx
+++ b/植物 工具 材料_Steven.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soras\Desktop\动森\改色\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soras\Desktop\动森\套装\AnimalCrossing-Item-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BD7FF9-6F0D-48B5-98AE-B13B9CD9C39C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B3E8BC-1BCB-4F6C-AE63-B6BED37A130D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="4545" windowWidth="16365" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="159">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>type</t>
   </si>
   <si>
     <t>Name</t>
@@ -213,9 +213,57 @@
     <t>快要坏掉的斧头</t>
   </si>
   <si>
+    <t>铃鼓</t>
+  </si>
+  <si>
+    <t>排笛</t>
+  </si>
+  <si>
+    <t>陶笛</t>
+  </si>
+  <si>
+    <t>荧光棒</t>
+  </si>
+  <si>
     <t>材料</t>
   </si>
   <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>橘子</t>
+  </si>
+  <si>
+    <t>梨子</t>
+  </si>
+  <si>
+    <t>桃子</t>
+  </si>
+  <si>
+    <t>樱桃</t>
+  </si>
+  <si>
+    <t>椰子</t>
+  </si>
+  <si>
+    <t>竹笋</t>
+  </si>
+  <si>
+    <t>出色蘑菇</t>
+  </si>
+  <si>
+    <t>圆形蘑菇</t>
+  </si>
+  <si>
+    <t>瘦小蘑菇</t>
+  </si>
+  <si>
+    <t>扁平蘑菇</t>
+  </si>
+  <si>
+    <t>珍贵蘑菇</t>
+  </si>
+  <si>
     <t>枫叶</t>
   </si>
   <si>
@@ -345,30 +393,15 @@
     <t>爱的结晶</t>
   </si>
   <si>
+    <t>轮胎</t>
+  </si>
+  <si>
+    <t>珍珠</t>
+  </si>
+  <si>
     <t>植物</t>
   </si>
   <si>
-    <t>苹果</t>
-  </si>
-  <si>
-    <t>橘子</t>
-  </si>
-  <si>
-    <t>梨子</t>
-  </si>
-  <si>
-    <t>桃子</t>
-  </si>
-  <si>
-    <t>樱桃</t>
-  </si>
-  <si>
-    <t>椰子</t>
-  </si>
-  <si>
-    <t>竹笋</t>
-  </si>
-  <si>
     <t>红色波斯菊种子</t>
   </si>
   <si>
@@ -414,19 +447,61 @@
     <t>黄色百合球根</t>
   </si>
   <si>
-    <t>出色蘑菇</t>
-  </si>
-  <si>
-    <t>圆形蘑菇</t>
-  </si>
-  <si>
-    <t>瘦小蘑菇</t>
-  </si>
-  <si>
-    <t>扁平蘑菇</t>
-  </si>
-  <si>
-    <t>珍贵蘑菇</t>
+    <t>白色银莲花球根</t>
+  </si>
+  <si>
+    <t>橘色银莲花球根</t>
+  </si>
+  <si>
+    <t>红色银莲花球根</t>
+  </si>
+  <si>
+    <t>白色风信子球根</t>
+  </si>
+  <si>
+    <t>黄色风信子球根</t>
+  </si>
+  <si>
+    <t>红色风信子球根</t>
+  </si>
+  <si>
+    <t>白色菊花种子</t>
+  </si>
+  <si>
+    <t>黄色菊花种子</t>
+  </si>
+  <si>
+    <t>红色菊花种子</t>
+  </si>
+  <si>
+    <t>贝壳</t>
+  </si>
+  <si>
+    <t>钟螺壳</t>
+  </si>
+  <si>
+    <t>骨螺壳</t>
+  </si>
+  <si>
+    <t>海螺壳</t>
+  </si>
+  <si>
+    <t>沙钱</t>
+  </si>
+  <si>
+    <t>珊瑚</t>
+  </si>
+  <si>
+    <t>扇贝壳</t>
+  </si>
+  <si>
+    <t>宝螺壳</t>
+  </si>
+  <si>
+    <t>蛤蜊</t>
+  </si>
+  <si>
+    <t>夏天贝壳</t>
   </si>
 </sst>
 </file>
@@ -751,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C129"/>
+      <selection sqref="A1:C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1410,54 +1485,54 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>5437</v>
+        <v>9032</v>
       </c>
       <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
         <v>62</v>
-      </c>
-      <c r="C60" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>5438</v>
+        <v>9033</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>5439</v>
+        <v>9034</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>5440</v>
+        <v>9036</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>5441</v>
+        <v>4588</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
         <v>67</v>
@@ -1465,10 +1540,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>5442</v>
+        <v>4589</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -1476,10 +1551,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>5443</v>
+        <v>4590</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
         <v>69</v>
@@ -1487,10 +1562,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>5444</v>
+        <v>4591</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
         <v>70</v>
@@ -1498,10 +1573,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>5445</v>
+        <v>4592</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
         <v>71</v>
@@ -1509,10 +1584,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>5446</v>
+        <v>4593</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
         <v>72</v>
@@ -1520,10 +1595,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>5447</v>
+        <v>4594</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
         <v>73</v>
@@ -1531,10 +1606,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>5448</v>
+        <v>4733</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
         <v>74</v>
@@ -1542,10 +1617,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>5449</v>
+        <v>4734</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
         <v>75</v>
@@ -1553,10 +1628,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>5450</v>
+        <v>4735</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
         <v>76</v>
@@ -1564,10 +1639,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>5451</v>
+        <v>4736</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s">
         <v>77</v>
@@ -1575,10 +1650,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>5452</v>
+        <v>4737</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C75" t="s">
         <v>78</v>
@@ -1586,10 +1661,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>5453</v>
+        <v>5437</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C76" t="s">
         <v>79</v>
@@ -1597,10 +1672,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>5454</v>
+        <v>5438</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C77" t="s">
         <v>80</v>
@@ -1608,10 +1683,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>5455</v>
+        <v>5439</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s">
         <v>81</v>
@@ -1619,10 +1694,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>5456</v>
+        <v>5440</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C79" t="s">
         <v>82</v>
@@ -1630,10 +1705,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>5457</v>
+        <v>5441</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
         <v>83</v>
@@ -1641,10 +1716,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>5458</v>
+        <v>5442</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C81" t="s">
         <v>84</v>
@@ -1652,10 +1727,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>5459</v>
+        <v>5443</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
         <v>85</v>
@@ -1663,10 +1738,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>5460</v>
+        <v>5444</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C83" t="s">
         <v>86</v>
@@ -1674,10 +1749,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>5461</v>
+        <v>5445</v>
       </c>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s">
         <v>87</v>
@@ -1685,10 +1760,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>5462</v>
+        <v>5446</v>
       </c>
       <c r="B85" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C85" t="s">
         <v>88</v>
@@ -1696,10 +1771,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>5463</v>
+        <v>5447</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C86" t="s">
         <v>89</v>
@@ -1707,10 +1782,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>5464</v>
+        <v>5448</v>
       </c>
       <c r="B87" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
         <v>90</v>
@@ -1718,10 +1793,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>5465</v>
+        <v>5449</v>
       </c>
       <c r="B88" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
         <v>91</v>
@@ -1729,10 +1804,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>5466</v>
+        <v>5450</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C89" t="s">
         <v>92</v>
@@ -1740,10 +1815,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>5467</v>
+        <v>5451</v>
       </c>
       <c r="B90" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s">
         <v>93</v>
@@ -1751,10 +1826,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>5469</v>
+        <v>5452</v>
       </c>
       <c r="B91" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C91" t="s">
         <v>94</v>
@@ -1762,10 +1837,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>5470</v>
+        <v>5453</v>
       </c>
       <c r="B92" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C92" t="s">
         <v>95</v>
@@ -1773,10 +1848,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>5471</v>
+        <v>5454</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C93" t="s">
         <v>96</v>
@@ -1784,10 +1859,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>5472</v>
+        <v>5455</v>
       </c>
       <c r="B94" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C94" t="s">
         <v>97</v>
@@ -1795,10 +1870,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>5473</v>
+        <v>5456</v>
       </c>
       <c r="B95" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C95" t="s">
         <v>98</v>
@@ -1806,10 +1881,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>5474</v>
+        <v>5457</v>
       </c>
       <c r="B96" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C96" t="s">
         <v>99</v>
@@ -1817,10 +1892,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>5475</v>
+        <v>5458</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C97" t="s">
         <v>100</v>
@@ -1828,10 +1903,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>8840</v>
+        <v>5459</v>
       </c>
       <c r="B98" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C98" t="s">
         <v>101</v>
@@ -1839,10 +1914,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>8841</v>
+        <v>5460</v>
       </c>
       <c r="B99" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C99" t="s">
         <v>102</v>
@@ -1850,10 +1925,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>8842</v>
+        <v>5461</v>
       </c>
       <c r="B100" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C100" t="s">
         <v>103</v>
@@ -1861,10 +1936,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>8843</v>
+        <v>5462</v>
       </c>
       <c r="B101" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C101" t="s">
         <v>104</v>
@@ -1872,10 +1947,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>8845</v>
+        <v>5463</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C102" t="s">
         <v>105</v>
@@ -1883,208 +1958,208 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>4588</v>
+        <v>5464</v>
       </c>
       <c r="B103" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" t="s">
         <v>106</v>
-      </c>
-      <c r="C103" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>4589</v>
+        <v>5465</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>4590</v>
+        <v>5466</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>4591</v>
+        <v>5467</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>4592</v>
+        <v>5469</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>4593</v>
+        <v>5470</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>4594</v>
+        <v>5471</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>4598</v>
+        <v>5472</v>
       </c>
       <c r="B110" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>4601</v>
+        <v>5473</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>4625</v>
+        <v>5474</v>
       </c>
       <c r="B112" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>4638</v>
+        <v>5475</v>
       </c>
       <c r="B113" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>4642</v>
+        <v>8840</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>4646</v>
+        <v>8841</v>
       </c>
       <c r="B115" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>4662</v>
+        <v>8842</v>
       </c>
       <c r="B116" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>4666</v>
+        <v>8843</v>
       </c>
       <c r="B117" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>4670</v>
+        <v>8845</v>
       </c>
       <c r="B118" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>4683</v>
+        <v>9035</v>
       </c>
       <c r="B119" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>4687</v>
+        <v>9118</v>
       </c>
       <c r="B120" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>4691</v>
+        <v>4598</v>
       </c>
       <c r="B121" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
         <v>125</v>
@@ -2092,10 +2167,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>4713</v>
+        <v>4601</v>
       </c>
       <c r="B122" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C122" t="s">
         <v>126</v>
@@ -2103,10 +2178,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>4717</v>
+        <v>4625</v>
       </c>
       <c r="B123" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C123" t="s">
         <v>127</v>
@@ -2114,10 +2189,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>4721</v>
+        <v>4638</v>
       </c>
       <c r="B124" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C124" t="s">
         <v>128</v>
@@ -2125,10 +2200,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>4733</v>
+        <v>4642</v>
       </c>
       <c r="B125" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C125" t="s">
         <v>129</v>
@@ -2136,10 +2211,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>4734</v>
+        <v>4646</v>
       </c>
       <c r="B126" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C126" t="s">
         <v>130</v>
@@ -2147,10 +2222,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>4735</v>
+        <v>4662</v>
       </c>
       <c r="B127" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C127" t="s">
         <v>131</v>
@@ -2158,10 +2233,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>4736</v>
+        <v>4666</v>
       </c>
       <c r="B128" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C128" t="s">
         <v>132</v>
@@ -2169,18 +2244,282 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>4737</v>
+        <v>4670</v>
       </c>
       <c r="B129" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C129" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>4683</v>
+      </c>
+      <c r="B130" t="s">
+        <v>124</v>
+      </c>
+      <c r="C130" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>4687</v>
+      </c>
+      <c r="B131" t="s">
+        <v>124</v>
+      </c>
+      <c r="C131" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>4691</v>
+      </c>
+      <c r="B132" t="s">
+        <v>124</v>
+      </c>
+      <c r="C132" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>4713</v>
+      </c>
+      <c r="B133" t="s">
+        <v>124</v>
+      </c>
+      <c r="C133" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>4717</v>
+      </c>
+      <c r="B134" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>4721</v>
+      </c>
+      <c r="B135" t="s">
+        <v>124</v>
+      </c>
+      <c r="C135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>4764</v>
+      </c>
+      <c r="B136" t="s">
+        <v>124</v>
+      </c>
+      <c r="C136" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>4768</v>
+      </c>
+      <c r="B137" t="s">
+        <v>124</v>
+      </c>
+      <c r="C137" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>4778</v>
+      </c>
+      <c r="B138" t="s">
+        <v>124</v>
+      </c>
+      <c r="C138" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>4785</v>
+      </c>
+      <c r="B139" t="s">
+        <v>124</v>
+      </c>
+      <c r="C139" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>4789</v>
+      </c>
+      <c r="B140" t="s">
+        <v>124</v>
+      </c>
+      <c r="C140" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>4799</v>
+      </c>
+      <c r="B141" t="s">
+        <v>124</v>
+      </c>
+      <c r="C141" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>4809</v>
+      </c>
+      <c r="B142" t="s">
+        <v>124</v>
+      </c>
+      <c r="C142" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>4813</v>
+      </c>
+      <c r="B143" t="s">
+        <v>124</v>
+      </c>
+      <c r="C143" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>4823</v>
+      </c>
+      <c r="B144" t="s">
+        <v>124</v>
+      </c>
+      <c r="C144" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>4570</v>
+      </c>
+      <c r="B145" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>4571</v>
+      </c>
+      <c r="B146" t="s">
+        <v>149</v>
+      </c>
+      <c r="C146" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>4572</v>
+      </c>
+      <c r="B147" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>4573</v>
+      </c>
+      <c r="B148" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>4574</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>4575</v>
+      </c>
+      <c r="B150" t="s">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>4576</v>
+      </c>
+      <c r="B151" t="s">
+        <v>149</v>
+      </c>
+      <c r="C151" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>4577</v>
+      </c>
+      <c r="B152" t="s">
+        <v>149</v>
+      </c>
+      <c r="C152" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>4578</v>
+      </c>
+      <c r="B153" t="s">
+        <v>149</v>
+      </c>
+      <c r="C153" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>